--- a/Auditt.Api/wwwroot/template/ReportGerencial.xlsx
+++ b/Auditt.Api/wwwroot/template/ReportGerencial.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAB\AUDITORIA_HS\AudittApi\audittapi\Auditt.Api\wwwroot\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E278E235-712C-4DB4-841B-F723B0C7DA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D05F1BD-5AA8-460F-A4EF-959872B8933F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6263C5BC-9B39-4DA2-9CD8-56D08E7D2F98}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6263C5BC-9B39-4DA2-9CD8-56D08E7D2F98}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe1" sheetId="1" r:id="rId1"/>
     <sheet name="Informe2" sheetId="2" r:id="rId2"/>
     <sheet name="Informe3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Informe1!$B$2:$C$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Informe1!$B$2:$C$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Informe2!$B$2:$C$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Informe3!$B$2:$C$28</definedName>
+    <definedName name="Functionaries">Informe2!$A$55:$C$59</definedName>
+    <definedName name="Functionaries_Questions">Informe2!$A$57:$C$58</definedName>
     <definedName name="QuestionAdherence">Informe2!$B$50:$C$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>INFORME DE AUDITORÍA</t>
   </si>
@@ -68,9 +73,6 @@
   </si>
   <si>
     <t>NIVEL DE CONFIANZA Y ERROR DE LA MUESTRA EVALUADA</t>
-  </si>
-  <si>
-    <t>Esta auditoria tiene un nivel de confianza estimado del xx% según aplicativo STAR, lo que significa que el resultado de este informe es confiable.</t>
   </si>
   <si>
     <t xml:space="preserve">Se estima un margen de error del x%, valor razonable en este tipo de auditorías. </t>
@@ -82,9 +84,6 @@
     <t xml:space="preserve">1.	La institución ha desarrollado una intensa labor en la contratación de personal idóneo para el proceso de urgencias.
 2.	La empresa social del estado cuenta con capacidad resolutiva. 
 3.	La institución se esfuerza en mantener un constante proceso de inducción y reinducción al personal que labora en la IPS. </t>
-  </si>
-  <si>
-    <t>Realizar retroalimentación a todos los profesionales de la salud y auxiliares de enfermería del PSS en manejo de xxxx xxxxxxx xxxxx, para con ello garantizar una atención segura, basada en evidencia científica, mejorar indicadores en salud del municipio y además lograr mejor porcentaje de adherencia a esta guía de atención en el PSS.</t>
   </si>
   <si>
     <t>El resultado de cada criterio evaluado en adherencia a GPC, es el siguiente:</t>
@@ -135,13 +134,6 @@
   </si>
   <si>
     <t>Firma Responsable de Proceso:</t>
-  </si>
-  <si>
-    <t>REFERENCIA:  informe adherencia a guía de práctica clínica (GPC) {{GuideName}}
-Respetados doctores, en cumplimiento de funciones contractuales; de manera atenta se remite informe de adherencia a guía de práctica clínica {{GuideName}}.</t>
-  </si>
-  <si>
-    <t>Verificar adherencia a guía de práctica clínica {{GuideName}}.</t>
   </si>
   <si>
     <r>
@@ -240,9 +232,6 @@
     <t>Adherencia Estricta</t>
   </si>
   <si>
-    <t>Número total de atenciones relacionadas con el diagnostico de {{CountHistories}}.</t>
-  </si>
-  <si>
     <t>{{GlobalAdherence}}</t>
   </si>
   <si>
@@ -253,6 +242,76 @@
   </si>
   <si>
     <t>{{item.Text}}</t>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DateRange</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}}</t>
+    </r>
+  </si>
+  <si>
+    <t>{{item.PercentSuccess}}</t>
+  </si>
+  <si>
+    <t>REFERENCIA:  informe adherencia a guía de práctica clínica (GPC) {{GuideDescription}}
+Respetados doctores, en cumplimiento de funciones contractuales; de manera atenta se remite informe de adherencia a guía de práctica clínica {{GuideDescription}}.</t>
+  </si>
+  <si>
+    <t>Verificar adherencia a guía de práctica clínica {{GuideDescription}}.</t>
+  </si>
+  <si>
+    <t>Número total de atenciones relacionadas con el diagnostico de {{GuideDescription}}.</t>
+  </si>
+  <si>
+    <t>TAMAÑO DE MUESTRA EVALUADA</t>
+  </si>
+  <si>
+    <t>Se revisan el registro de seguimiento de {{GuideDescription}}.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta auditoria tiene un nivel de confianza estimado del </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xx%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> según aplicativo STAR, lo que significa que el resultado de este informe es confiable.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -274,9 +333,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">DOCTOR XXXXX XXXXX   
+      <t xml:space="preserve">DOCTOR {{ManagerName}}
             Gerente {{InstitutionName}}
-            DOCTOR XXXX XXXXX
+            DOCTOR {{AssistantManagerName}}
             Subgerente científico {{InstitutionName}}
 </t>
     </r>
@@ -306,35 +365,6 @@
   </si>
   <si>
     <r>
-      <t>{{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DateRange</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}}</t>
-    </r>
-  </si>
-  <si>
-    <t>{{item.PercentSuccess}}</t>
-  </si>
-  <si>
-    <r>
       <t>Para realizar esta auditoria se construye instrumento teniendo en cuenta recomendaciones según GRADE (Graduación de las recomendaciones) registradas en GPC</t>
     </r>
     <r>
@@ -345,7 +375,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> xxxx xxxxx xxxx</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{GuideDescription}}</t>
     </r>
     <r>
       <rPr>
@@ -360,12 +399,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>xxxx xxxx</t>
+      <t>{{GuideDescription}}</t>
     </r>
     <r>
       <rPr>
@@ -379,12 +417,39 @@
 El instrumento se diseña en archivo en Excel, el cual se anexa con este informe.</t>
     </r>
   </si>
+  <si>
+    <t>Realizar retroalimentación a todos los profesionales de la salud y auxiliares de enfermería del PSS en manejo de {{GuideDescription}}, para con ello garantizar una atención segura, basada en evidencia científica, mejorar indicadores en salud del municipio y además lograr mejor porcentaje de adherencia a esta guía de atención en el PSS.</t>
+  </si>
+  <si>
+    <t>OPORTUNIDADES DE MEJORA</t>
+  </si>
+  <si>
+    <t>RESULTADOS DE ADHERENCIA A LA GUIA PRACTICA CLINICA</t>
+  </si>
+  <si>
+    <t>{{Item.FunctionaryName}}</t>
+  </si>
+  <si>
+    <t>{{Item.Text}}</t>
+  </si>
+  <si>
+    <t>{{Item.PercentSuccess}}</t>
+  </si>
+  <si>
+    <t>Funcionario</t>
+  </si>
+  <si>
+    <t>RESULTADOS DE ADHERENCIA POR FUNCIONARIO</t>
+  </si>
+  <si>
+    <t>ANÁLISIS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +528,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -597,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -610,6 +689,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,18 +705,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -651,12 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,6 +776,987 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ADHERENCIA A RECOMENDACIONES</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> TRAZADORAS </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPC DE HTA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Informe2!$B$49:$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Criterio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adherencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Informe2!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>{{item.Text}}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Informe2!$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C79-4283-AE63-16E27549B2AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="209441872"/>
+        <c:axId val="209442960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="209441872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209442960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="209442960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="209441872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,7 +1866,135 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2956892</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1962150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DDB6C3-9D87-487D-8254-184073570A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Instrumento HTA"/>
+      <sheetName val="Informe general"/>
+      <sheetName val="Informe por recomendacion total"/>
+      <sheetName val="Informe por recomendacion"/>
+      <sheetName val="Graficos"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="6">
+          <cell r="F6" t="str">
+            <v>Numero 1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7" t="str">
+            <v>Numero 2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8" t="str">
+            <v>Numero 3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9" t="str">
+            <v>Numero 4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10" t="str">
+            <v>Numero 5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11" t="str">
+            <v>Numero 6</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12" t="str">
+            <v>Numero 7</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13" t="str">
+            <v>Numero 8</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14" t="str">
+            <v>Numero 9</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15" t="str">
+            <v>Numero 10</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16" t="str">
+            <v>Numero 11</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17" t="str">
+            <v>Numero 12</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18" t="str">
+            <v>Numero 13</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1124,10 +2315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EED237-A74C-40D9-811D-60A9857084E4}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:C40"/>
+  <dimension ref="B2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,178 +2335,193 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+      <c r="C39" s="13"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B3:C14"/>
-    <mergeCell ref="B15:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C40"/>
+  <mergeCells count="15">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C43"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C26"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C36"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B3:C14"/>
+    <mergeCell ref="B15:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
@@ -1325,10 +2531,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B82992-7901-433A-A8E9-BED1281E0176}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B2:C51"/>
+  <dimension ref="B2:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,221 +2551,260 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="12"/>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="20"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="21"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="3" t="s">
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="12"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B38:C41"/>
     <mergeCell ref="B43:C43"/>
@@ -1584,8 +2829,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="B2:C44"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,114 +2847,114 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="28"/>
+      <c r="B4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="21"/>
+      <c r="B5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="2:3" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="C20" s="26"/>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="C23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="23"/>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
